--- a/biology/Médecine/Nouzha_Skalli/Nouzha_Skalli.xlsx
+++ b/biology/Médecine/Nouzha_Skalli/Nouzha_Skalli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nouzha Skalli, née le 25 mai 1950 à El Jadida au Maroc, est une femme politique marocaine affiliée au Parti du progrès et du socialisme et militante pour les droits des femmes.
 Elle devient élue locale en 1997 à Casablanca, et est élue au parlement en 2002 ; elle devient la première Marocaine à occuper la fonction de chef d'un groupe parlementaire.
-Elle est nommée ministre du Développement social, de la Famille et de la Solidarité le 15 octobre 2007 dans le gouvernement El Fassi, occupant cette fonction jusqu'en janvier 2012. À ce titre, elle est la première personnalité d'un gouvernement marocain à proposer la légalisation de l'avortement dans certains cas[1].
+Elle est nommée ministre du Développement social, de la Famille et de la Solidarité le 15 octobre 2007 dans le gouvernement El Fassi, occupant cette fonction jusqu'en janvier 2012. À ce titre, elle est la première personnalité d'un gouvernement marocain à proposer la légalisation de l'avortement dans certains cas.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Parcours universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1974, elle est diplômée en pharmacie de l'université Montpellier-I.
 </t>
@@ -545,14 +559,51 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1969, elle rejoint le Parti du progrès et du socialisme. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1969, elle rejoint le Parti du progrès et du socialisme. 
 Faisant de la participation politique des femmes son cheval de bataille, elle est candidate à toutes les élections de 1976, date de la reprise du processus démocratique, après les années d’exception qu’a connu le Maroc, jusqu'à 2002, date de son élection au Parlement en tant que tête de liste nationale du Parti du progrès et du socialisme.
 Aux élections législatives de 1977, elle est l'une des huit femmes candidates à travers tout le royaume et la seule femme candidate à Casablanca, tous partis politiques confondus.
 En juin 1997, elle est élue conseillère municipale à la commune de Sidi Belyout de Casablanca, mandat qu'elle exerce jusqu’en 2003.
-Responsabilités politiques
-En 2002, députée du Parti du progrès et du socialisme (PPS) à la Chambre des représentants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nouzha_Skalli</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nouzha_Skalli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parcours politique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Responsabilités politiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2002, députée du Parti du progrès et du socialisme (PPS) à la Chambre des représentants
 En 2003-2004, chef du groupe parlementaire de l’Alliance socialiste
 Vice-présidente de la Commission des secteurs sociaux à la Chambre des représentants
 Membre du bureau politique du Parti du progrès et du socialisme.
@@ -568,33 +619,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nouzha_Skalli</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nouzha_Skalli</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le 23 octobre 2011, à Rimini (Italie), elle reçoit la médaille d'or du président de la République italienne, qui lui a été décernée en reconnaissance à son engagement en faveur des droits des femmes et de l'égalité[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le 23 octobre 2011, à Rimini (Italie), elle reçoit la médaille d'or du président de la République italienne, qui lui a été décernée en reconnaissance à son engagement en faveur des droits des femmes et de l'égalité.
 En novembre 2009 le Club italien de la Donne lui décerne à Rome le prix « Minerva » Anna Mammolitti catégorie politique
 Par Espode : « Printemps des talents féminins » en mars 2005
 Par le Population Institute de Washington : Prix du meilleur leader en décembre 2004
@@ -603,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nouzha_Skalli</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nouzha_Skalli</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Plusieurs articles et interviews dans des journaux et magazines nationaux et étrangers : Al Bayane, L'Économiste, La Vie économique, La Nouvelle Tribune, Al Ahdath Al Maghribia, Femmes du Maroc, Citadine, The Wall Street Journal, Le Monde, Le Point, etc.
 Contribution à des publications de l’ADFM :
